--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387220.3208193238</v>
+        <v>-389701.2406447841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>57.36820351377906</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579949</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.23303304095835</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>108.7523211591857</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>40.57145822457994</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271162</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>40.71072521252307</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1670,10 +1670,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>52.58162707712455</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>107.0733734269368</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.82452979392335</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,13 +1850,13 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>187.3753358887785</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703241</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2734363206866</v>
+        <v>178.273436320687</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,16 +2087,16 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>264.1324224000123</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>220.6411254041906</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I22" t="n">
-        <v>84.85683139908213</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258358</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245677</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249329</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121762</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2539,7 +2539,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.214066378282</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463757</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,7 +3089,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988209</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598765</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383226</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8803261135848</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333686</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.562100870523</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>90.95618068285675</v>
       </c>
       <c r="F40" t="n">
-        <v>89.94326605922012</v>
+        <v>47.73632779482641</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092339</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621595</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>111.880326113585</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333683</v>
+        <v>143.0438109257879</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>91.27556587748808</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>110.548026295317</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333683</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1884.43143472439</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043702</v>
+        <v>797.5365442767284</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>797.5365442767284</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581547</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282709</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299114</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299114</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253116</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786676</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.610911702829</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2616.610911702829</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2270.337220701473</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2243.839207528788</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.806454474386</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="C13" t="n">
-        <v>441.0623388062029</v>
+        <v>308.461808107214</v>
       </c>
       <c r="D13" t="n">
-        <v>318.1377666535909</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>277.1564957196717</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196717</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541143</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344239</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567002</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8633639287084</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.262852044902</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.8229678559</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>1098.1850492983</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645005</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H14" t="n">
-        <v>81.3169479329913</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5318,10 +5318,10 @@
         <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2207.935722479258</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2154.8229678559</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.5377403381722</v>
+        <v>418.3126375609365</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7936246699888</v>
+        <v>310.1577149074649</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8690525173768</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8690525173768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>296.17117227919</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>155.660402913633</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,10 +5437,10 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.392133430788</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X16" t="n">
-        <v>1028.594649792495</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.9941379086882</v>
+        <v>572.7690351314526</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.441802325476</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1439.120985592861</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.496987193908</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>629.812690019987</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.812690019987</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5522,16 +5522,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3194.26977420119</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2937.848587065416</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2659.721632003098</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.897573949816</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2045.3999421818</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5616,22 +5616,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604103</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5698,10 +5698,10 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952115</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U19" t="n">
         <v>1370.445531062878</v>
@@ -5710,13 +5710,13 @@
         <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454044</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1810.974212942884</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1516.653396210269</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1233.029397811315</v>
+        <v>940.9592424104349</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>629.8126900199877</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>406.9428663793899</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.269774201189</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>3015.380997682823</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2737.254042620506</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2438.429984567224</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2122.932352799209</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243101</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341967</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8015741167126</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>152.2260875423674</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5947,13 +5947,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -6002,25 +6002,25 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
@@ -6060,28 +6060,28 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27762327704</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138544</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937446</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892059</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146098</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
         <v>260.6983547881692</v>
@@ -6139,13 +6139,13 @@
         <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633998</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6187,10 +6187,10 @@
         <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890166</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.68494470935</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768132</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973153</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>878.8992091819734</v>
+        <v>665.7404053951323</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.933422430382</v>
+        <v>1116.774618643541</v>
       </c>
       <c r="M29" t="n">
-        <v>1863.465327102306</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N29" t="n">
-        <v>2410.244144161089</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490543</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6692,46 +6692,46 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
@@ -6853,16 +6853,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6914,55 +6914,55 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127583</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586949</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202027</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>569.9553583116531</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>423.0654108137427</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388412</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691546</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7196,28 +7196,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7242,13 +7242,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228006</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650709</v>
+        <v>543.5641013650702</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110074</v>
+        <v>473.2993530110066</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986716</v>
+        <v>323.1827135986708</v>
       </c>
       <c r="E40" t="n">
-        <v>273.941054590122</v>
+        <v>231.3077836159872</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
         <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.726127978445</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153278</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X40" t="n">
-        <v>748.662276191154</v>
+        <v>847.3337107649968</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214672</v>
+        <v>725.2125661953099</v>
       </c>
     </row>
     <row r="41">
@@ -7394,58 +7394,58 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866021</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325387</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>717.8684518940464</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>569.9553583116533</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>423.0654108137429</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699976</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236859</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912685</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429983</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127586</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848517</v>
+        <v>374.6279184371639</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463594</v>
+        <v>323.1827135986716</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639663</v>
+        <v>273.9410545901219</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735743</v>
+        <v>225.722541666055</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221367</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699976</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236859</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912685</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429983</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430625</v>
+        <v>157.2353108430632</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728998</v>
+        <v>184.4039433729009</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389592</v>
+        <v>191.4948909389606</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333054</v>
+        <v>181.085632533307</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830227</v>
+        <v>179.3553748830243</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383978</v>
+        <v>182.8301554383993</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586574</v>
+        <v>190.8908035586587</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266116</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.656200187597</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372526</v>
+        <v>113.6031223372534</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672265</v>
+        <v>105.9629718672275</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253583</v>
+        <v>104.1013981253595</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677548</v>
+        <v>92.30246558677675</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359726</v>
+        <v>106.8829608359737</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798316</v>
+        <v>105.3113487798325</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615452</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564653</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085222</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140772</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.669460053092</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.50808566627</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784332</v>
+        <v>274.0980055054515</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>105.7385611944686</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>277.832108723649</v>
+        <v>62.52018570663756</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122.1718867553225</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.6420199713563</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>333.0847590279688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.57435335231571</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>78.94235783486276</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.0521698210334</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.7361649918026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.25330108456455</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>99.01033853327101</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>120.6597509777643</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.07135577741030463</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.9026644665305</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3396371318018</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1191225.350649291</v>
+        <v>1191225.350649292</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996467.9365569506</v>
+        <v>996467.9365569503</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>327710.5354868152</v>
+      </c>
+      <c r="C2" t="n">
         <v>327710.5354868154</v>
       </c>
-      <c r="C2" t="n">
-        <v>327710.5354868152</v>
-      </c>
       <c r="D2" t="n">
-        <v>327719.4679223786</v>
+        <v>327719.4679223784</v>
       </c>
       <c r="E2" t="n">
-        <v>291816.0003619899</v>
+        <v>291816.00036199</v>
       </c>
       <c r="F2" t="n">
-        <v>291816.0003619899</v>
+        <v>291816.00036199</v>
       </c>
       <c r="G2" t="n">
         <v>317812.3284986143</v>
       </c>
       <c r="H2" t="n">
-        <v>317812.3284986144</v>
+        <v>317812.3284986146</v>
       </c>
       <c r="I2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="J2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="K2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="L2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="M2" t="n">
         <v>328416.7079457134</v>
-      </c>
-      <c r="J2" t="n">
-        <v>328416.7079457136</v>
-      </c>
-      <c r="K2" t="n">
-        <v>328416.7079457133</v>
-      </c>
-      <c r="L2" t="n">
-        <v>328416.7079457135</v>
-      </c>
-      <c r="M2" t="n">
-        <v>328416.7079457132</v>
       </c>
       <c r="N2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552447</v>
+        <v>59764.55367552255</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487427</v>
+        <v>37580.10929487425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983368</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179694</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475033</v>
+        <v>426120.683347504</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.21797863746</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.2179786374</v>
+        <v>39414.21797863746</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007964</v>
+        <v>76442.37834007967</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007967</v>
+        <v>76442.37834007971</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602844</v>
+        <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936333</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936343</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936327</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="N4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316941</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318664</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,10 +26482,10 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152941.6847855775</v>
+        <v>-152946.0983634458</v>
       </c>
       <c r="C6" t="n">
-        <v>-152941.6847855777</v>
+        <v>-152946.0983634456</v>
       </c>
       <c r="D6" t="n">
-        <v>-193314.6745325156</v>
+        <v>-193319.0322826603</v>
       </c>
       <c r="E6" t="n">
-        <v>-913406.6801451041</v>
+        <v>-913635.4345675047</v>
       </c>
       <c r="F6" t="n">
-        <v>175832.2920185261</v>
+        <v>175603.5375961278</v>
       </c>
       <c r="G6" t="n">
-        <v>123271.1977384456</v>
+        <v>123204.9203669011</v>
       </c>
       <c r="H6" t="n">
-        <v>160851.30703332</v>
+        <v>160785.0296617758</v>
       </c>
       <c r="I6" t="n">
         <v>130527.3762080091</v>
       </c>
       <c r="J6" t="n">
-        <v>126719.7759497472</v>
+        <v>126719.7759497468</v>
       </c>
       <c r="K6" t="n">
-        <v>152129.2089715438</v>
+        <v>152129.2089715441</v>
       </c>
       <c r="L6" t="n">
-        <v>114549.09967667</v>
+        <v>114549.0996766698</v>
       </c>
       <c r="M6" t="n">
-        <v>-47843.94430643031</v>
+        <v>-47843.94430643012</v>
       </c>
       <c r="N6" t="n">
         <v>154324.155686294</v>
       </c>
       <c r="O6" t="n">
-        <v>154324.155686294</v>
+        <v>154324.1556862943</v>
       </c>
       <c r="P6" t="n">
-        <v>154324.1556862941</v>
+        <v>154324.1556862942</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790838</v>
+        <v>69.78465283790614</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790838</v>
+        <v>69.78465283790614</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.375044067581747e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104724</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.246564378017</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672092</v>
+        <v>84.22861846672109</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987492</v>
+        <v>90.83829126987521</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519059</v>
+        <v>84.46220888519088</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989921</v>
+        <v>7.64903505099039</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317022</v>
+        <v>75.62456067317056</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>11.49558901075531</v>
+        <v>11.49558901075486</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075517</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859354</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>54.14548214544347</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371242</v>
       </c>
       <c r="F40" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>54.14548214544318</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565399</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30855,25 +30855,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>54.14548214544317</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>55.47778196371125</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28054131794134</v>
+        <v>0.280541317941331</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366749</v>
+        <v>2.873093772366657</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993352</v>
+        <v>10.81556915993317</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362383</v>
+        <v>23.81059368362306</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208076</v>
+        <v>35.68590767207961</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102805</v>
+        <v>44.27152403102663</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396735</v>
+        <v>49.26060069396577</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356819</v>
+        <v>50.05768871356658</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328899</v>
+        <v>47.26805598328747</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661215</v>
+        <v>40.34219219661085</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478379</v>
+        <v>30.29530624783693</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313272</v>
+        <v>17.62255356313215</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588292</v>
+        <v>6.392835282588086</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288217</v>
+        <v>1.228069619288177</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353072</v>
+        <v>0.02244330543530648</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179652</v>
+        <v>0.1501028381796472</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840323</v>
+        <v>1.449677410840277</v>
       </c>
       <c r="I9" t="n">
-        <v>5.16801438469416</v>
+        <v>5.168014384693993</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906967</v>
+        <v>14.18142647906921</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710635</v>
+        <v>24.23831663710557</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264769</v>
+        <v>32.59140791264664</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666007</v>
+        <v>38.03263579665884</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655782</v>
+        <v>39.03924649655657</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847185</v>
+        <v>35.7132836084707</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449864</v>
+        <v>28.66305863449772</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447628</v>
+        <v>19.16049562447567</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768221</v>
+        <v>9.319542882767921</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608885</v>
+        <v>2.788094384608795</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890357</v>
+        <v>0.6050197731890162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234553</v>
+        <v>0.009875186722345212</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486872</v>
+        <v>0.1258411772486832</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811056</v>
+        <v>1.11884246681102</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078704</v>
+        <v>3.784387403078583</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482187</v>
+        <v>8.896971231481901</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489293</v>
+        <v>14.62045677489246</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477301</v>
+        <v>18.70915102477241</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908285</v>
+        <v>19.72617653908222</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115594</v>
+        <v>19.25713215115532</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875082</v>
+        <v>17.78707839875024</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287758</v>
+        <v>15.2199183828771</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852417</v>
+        <v>10.53748257852383</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381881</v>
+        <v>5.658276933381699</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233939</v>
+        <v>2.193068516233869</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625726</v>
+        <v>0.5376850300625553</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564766</v>
+        <v>0.006864064213564545</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666523</v>
+        <v>782.1510063936706</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>504.5005474138404</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165976</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>615.0233952790494</v>
+        <v>399.7114722620381</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>577.7620011476547</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597689</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
